--- a/test.xlsx
+++ b/test.xlsx
@@ -471,8 +471,8 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <f>A1:A3+B1:B3</f>
-        <v>11</v>
+        <f>SUM(B1:B3)</f>
+        <v>60</v>
       </c>
       <c r="E1">
         <f>2+B1:B3</f>
@@ -488,7 +488,7 @@
       </c>
       <c r="H1" t="b">
         <f>D1:D3&gt;15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <f>IFERROR(B1/0, 4)</f>
